--- a/Excel/Salat.xlsx
+++ b/Excel/Salat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaja_\Dokumenter\Webtek\Excel_to_text\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaja_\Dokumenter\Webtek\Nettside_webtek_28\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B20BA2D-7982-438D-A5A3-3C52C777FE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4445D634-B4AB-42D7-B7C2-9AF40C94622D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1764" windowWidth="17280" windowHeight="8964" xr2:uid="{E242AF23-616E-4033-B2C5-22613DFA5AFB}"/>
+    <workbookView xWindow="1248" yWindow="264" windowWidth="16968" windowHeight="11832" xr2:uid="{E242AF23-616E-4033-B2C5-22613DFA5AFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Salat" sheetId="1" r:id="rId1"/>
@@ -56,13 +56,13 @@
     <t>Vegetarsalat</t>
   </si>
   <si>
-    <t>Salat, agurk, paprika, mais, ananas, fersken, kikerter, bønner, soltørka tomat. Serveres med hjemmelaget dressing og brød. 1,2,8</t>
-  </si>
-  <si>
     <t>Rekesalat</t>
   </si>
   <si>
-    <t>Reker, salat, agurk, mais, fersken, ananas. Serveres med hjemmelaget dressing og brød. 1,2,3,5,8</t>
+    <t>Reker, salat, agurk, mais, fersken, ananas. Serverast med heimelaga dressing og brød. 1,2,3,5,8</t>
+  </si>
+  <si>
+    <t>Salat, agurk, paprika, mais, ananas, fersken, kikerter, bønner, soltørka tomat. Serverast med heimelaga dressing og brød. 1,2,8</t>
   </si>
 </sst>
 </file>
@@ -416,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEDE66D-B9BE-40FA-941A-C10D7D5404B7}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -457,18 +457,18 @@
         <v>159</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>168</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Salat.xlsx
+++ b/Excel/Salat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaja_\Dokumenter\Webtek\Nettside_webtek_28\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\signe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4445D634-B4AB-42D7-B7C2-9AF40C94622D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599F9DC3-5B2D-48E2-959B-65E8D02C3EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1248" yWindow="264" windowWidth="16968" windowHeight="11832" xr2:uid="{E242AF23-616E-4033-B2C5-22613DFA5AFB}"/>
+    <workbookView xWindow="1416" yWindow="1728" windowWidth="21624" windowHeight="12672" xr2:uid="{E242AF23-616E-4033-B2C5-22613DFA5AFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Salat" sheetId="1" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>Cæsar salat</t>
   </si>
   <si>
-    <t>Kylling, bacon, salat, cæsardressing, krutonger, parmesan. Serveres med brød. 2,3,10,12</t>
-  </si>
-  <si>
     <t>Vegetarsalat</t>
   </si>
   <si>
@@ -63,6 +60,9 @@
   </si>
   <si>
     <t>Salat, agurk, paprika, mais, ananas, fersken, kikerter, bønner, soltørka tomat. Serverast med heimelaga dressing og brød. 1,2,8</t>
+  </si>
+  <si>
+    <t>Kylling, bacon, salat, cæsardressing, krutongar, parmesan. Serverast med brød. 2,3,10,12</t>
   </si>
 </sst>
 </file>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -417,10 +417,10 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="47.33203125" customWidth="1"/>
     <col min="2" max="2" width="30.5546875" customWidth="1"/>
@@ -446,29 +446,29 @@
         <v>179</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>159</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>168</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
